--- a/sample_file.xlsx
+++ b/sample_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D35E9E5B-F937-45CD-910D-D7CBE4BCC38D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0161513-73B6-4E34-82C9-B954E5C0349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -767,7 +767,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -782,6 +782,7 @@
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -45141,10 +45142,10 @@
     <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
     <col min="3" max="3" width="2" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="85" style="1" customWidth="1"/>
+    <col min="8" max="8" width="81.42578125" style="1" customWidth="1"/>
     <col min="9" max="9" width="59.42578125" style="1" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>

--- a/sample_file.xlsx
+++ b/sample_file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0161513-73B6-4E34-82C9-B954E5C0349E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7141A1-944E-4144-82F1-CB58EF049EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -401,11 +401,76 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -433,26 +498,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -767,7 +812,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -779,7 +824,7 @@
     <col min="5" max="5" width="33.140625" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="8" width="19" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="49.140625" style="45" customWidth="1"/>
     <col min="10" max="10" width="1.85546875" style="2" customWidth="1"/>
     <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
@@ -788,6 +833,7 @@
   <sheetData>
     <row r="1" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D1" s="3"/>
+      <c r="I1" s="41"/>
     </row>
     <row r="2" spans="3:10" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="4"/>
@@ -796,7 +842,7 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
+      <c r="I2" s="42"/>
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="3:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
@@ -828,7 +874,7 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="12"/>
     </row>
     <row r="5" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -841,7 +887,7 @@
       <c r="F5" s="20"/>
       <c r="G5" s="20"/>
       <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="12"/>
     </row>
     <row r="6" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -854,7 +900,7 @@
       <c r="F6" s="20"/>
       <c r="G6" s="20"/>
       <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="12"/>
     </row>
     <row r="7" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -867,7 +913,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="20"/>
       <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="12"/>
     </row>
     <row r="8" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -880,7 +926,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="12"/>
     </row>
     <row r="9" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -893,7 +939,7 @@
       <c r="F9" s="20"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="12"/>
     </row>
     <row r="10" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -906,7 +952,7 @@
       <c r="F10" s="20"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
+      <c r="I10" s="43"/>
       <c r="J10" s="12"/>
     </row>
     <row r="11" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -919,7 +965,7 @@
       <c r="F11" s="20"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="43"/>
       <c r="J11" s="12"/>
     </row>
     <row r="12" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -932,7 +978,7 @@
       <c r="F12" s="20"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
+      <c r="I12" s="43"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -945,7 +991,7 @@
       <c r="F13" s="20"/>
       <c r="G13" s="20"/>
       <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
+      <c r="I13" s="43"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -958,7 +1004,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -971,7 +1017,7 @@
       <c r="F15" s="20"/>
       <c r="G15" s="20"/>
       <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
+      <c r="I15" s="43"/>
       <c r="J15" s="12"/>
     </row>
     <row r="16" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -984,7 +1030,7 @@
       <c r="F16" s="20"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
+      <c r="I16" s="43"/>
       <c r="J16" s="12"/>
     </row>
     <row r="17" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -997,7 +1043,7 @@
       <c r="F17" s="20"/>
       <c r="G17" s="20"/>
       <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
+      <c r="I17" s="43"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1010,7 +1056,7 @@
       <c r="F18" s="20"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
+      <c r="I18" s="43"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1023,7 +1069,7 @@
       <c r="F19" s="20"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="I19" s="43"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1036,7 +1082,7 @@
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
+      <c r="I20" s="43"/>
       <c r="J20" s="12"/>
     </row>
     <row r="21" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1049,7 +1095,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="20"/>
       <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
+      <c r="I21" s="43"/>
       <c r="J21" s="12"/>
     </row>
     <row r="22" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1062,7 +1108,7 @@
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="I22" s="43"/>
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1075,7 +1121,7 @@
       <c r="F23" s="20"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="I23" s="43"/>
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1088,7 +1134,7 @@
       <c r="F24" s="20"/>
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="I24" s="43"/>
       <c r="J24" s="12"/>
     </row>
     <row r="25" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1101,7 +1147,7 @@
       <c r="F25" s="20"/>
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="I25" s="43"/>
       <c r="J25" s="12"/>
     </row>
     <row r="26" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1114,7 +1160,7 @@
       <c r="F26" s="20"/>
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="I26" s="43"/>
       <c r="J26" s="12"/>
     </row>
     <row r="27" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1127,7 +1173,7 @@
       <c r="F27" s="20"/>
       <c r="G27" s="20"/>
       <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
+      <c r="I27" s="43"/>
       <c r="J27" s="12"/>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
@@ -1140,7 +1186,7 @@
       <c r="F28" s="20"/>
       <c r="G28" s="20"/>
       <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
+      <c r="I28" s="43"/>
       <c r="J28" s="12"/>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
@@ -1153,7 +1199,7 @@
       <c r="F29" s="20"/>
       <c r="G29" s="20"/>
       <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
+      <c r="I29" s="43"/>
       <c r="J29" s="12"/>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
@@ -1166,7 +1212,7 @@
       <c r="F30" s="20"/>
       <c r="G30" s="20"/>
       <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
+      <c r="I30" s="43"/>
       <c r="J30" s="12"/>
     </row>
     <row r="31" spans="3:10" x14ac:dyDescent="0.25">
@@ -1179,7 +1225,7 @@
       <c r="F31" s="20"/>
       <c r="G31" s="20"/>
       <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
+      <c r="I31" s="43"/>
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="3:10" x14ac:dyDescent="0.25">
@@ -1192,7 +1238,7 @@
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
+      <c r="I32" s="43"/>
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="3:10" x14ac:dyDescent="0.25">
@@ -1205,7 +1251,7 @@
       <c r="F33" s="20"/>
       <c r="G33" s="20"/>
       <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
+      <c r="I33" s="43"/>
       <c r="J33" s="12"/>
     </row>
     <row r="34" spans="3:10" x14ac:dyDescent="0.25">
@@ -1218,7 +1264,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
       <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
+      <c r="I34" s="43"/>
       <c r="J34" s="12"/>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.25">
@@ -1231,7 +1277,7 @@
       <c r="F35" s="20"/>
       <c r="G35" s="20"/>
       <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
+      <c r="I35" s="43"/>
       <c r="J35" s="12"/>
     </row>
     <row r="36" spans="3:10" x14ac:dyDescent="0.25">
@@ -1244,7 +1290,7 @@
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
+      <c r="I36" s="43"/>
       <c r="J36" s="12"/>
     </row>
     <row r="37" spans="3:10" x14ac:dyDescent="0.25">
@@ -1257,7 +1303,7 @@
       <c r="F37" s="20"/>
       <c r="G37" s="20"/>
       <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
+      <c r="I37" s="43"/>
       <c r="J37" s="12"/>
     </row>
     <row r="38" spans="3:10" x14ac:dyDescent="0.25">
@@ -1270,7 +1316,7 @@
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
       <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
+      <c r="I38" s="43"/>
       <c r="J38" s="12"/>
     </row>
     <row r="39" spans="3:10" x14ac:dyDescent="0.25">
@@ -1283,7 +1329,7 @@
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
+      <c r="I39" s="43"/>
       <c r="J39" s="12"/>
     </row>
     <row r="40" spans="3:10" x14ac:dyDescent="0.25">
@@ -1296,7 +1342,7 @@
       <c r="F40" s="20"/>
       <c r="G40" s="20"/>
       <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="12"/>
     </row>
     <row r="41" spans="3:10" x14ac:dyDescent="0.25">
@@ -1309,7 +1355,7 @@
       <c r="F41" s="20"/>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="12"/>
     </row>
     <row r="42" spans="3:10" x14ac:dyDescent="0.25">
@@ -1322,7 +1368,7 @@
       <c r="F42" s="20"/>
       <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
+      <c r="I42" s="43"/>
       <c r="J42" s="12"/>
     </row>
     <row r="43" spans="3:10" x14ac:dyDescent="0.25">
@@ -1335,7 +1381,7 @@
       <c r="F43" s="20"/>
       <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
+      <c r="I43" s="43"/>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="3:10" x14ac:dyDescent="0.25">
@@ -1348,7 +1394,7 @@
       <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
+      <c r="I44" s="43"/>
       <c r="J44" s="12"/>
     </row>
     <row r="45" spans="3:10" x14ac:dyDescent="0.25">
@@ -1361,7 +1407,7 @@
       <c r="F45" s="20"/>
       <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
+      <c r="I45" s="43"/>
       <c r="J45" s="12"/>
     </row>
     <row r="46" spans="3:10" x14ac:dyDescent="0.25">
@@ -1374,7 +1420,7 @@
       <c r="F46" s="20"/>
       <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
+      <c r="I46" s="43"/>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="3:10" x14ac:dyDescent="0.25">
@@ -1387,7 +1433,7 @@
       <c r="F47" s="20"/>
       <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
+      <c r="I47" s="43"/>
       <c r="J47" s="12"/>
     </row>
     <row r="48" spans="3:10" x14ac:dyDescent="0.25">
@@ -1400,7 +1446,7 @@
       <c r="F48" s="20"/>
       <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
+      <c r="I48" s="43"/>
       <c r="J48" s="12"/>
     </row>
     <row r="49" spans="3:10" x14ac:dyDescent="0.25">
@@ -1413,7 +1459,7 @@
       <c r="F49" s="20"/>
       <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
+      <c r="I49" s="43"/>
       <c r="J49" s="12"/>
     </row>
     <row r="50" spans="3:10" x14ac:dyDescent="0.25">
@@ -1426,7 +1472,7 @@
       <c r="F50" s="20"/>
       <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
+      <c r="I50" s="43"/>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
@@ -1439,7 +1485,7 @@
       <c r="F51" s="20"/>
       <c r="G51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
+      <c r="I51" s="43"/>
       <c r="J51" s="12"/>
     </row>
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
@@ -1452,7 +1498,7 @@
       <c r="F52" s="20"/>
       <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
+      <c r="I52" s="43"/>
       <c r="J52" s="12"/>
     </row>
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
@@ -1465,7 +1511,7 @@
       <c r="F53" s="20"/>
       <c r="G53" s="20"/>
       <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
+      <c r="I53" s="43"/>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
@@ -1478,7 +1524,7 @@
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
+      <c r="I54" s="43"/>
       <c r="J54" s="12"/>
     </row>
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
@@ -1491,7 +1537,7 @@
       <c r="F55" s="20"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
+      <c r="I55" s="43"/>
       <c r="J55" s="12"/>
     </row>
     <row r="56" spans="3:10" x14ac:dyDescent="0.25">
@@ -1504,7 +1550,7 @@
       <c r="F56" s="20"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
+      <c r="I56" s="43"/>
       <c r="J56" s="12"/>
     </row>
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
@@ -1517,7 +1563,7 @@
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
+      <c r="I57" s="43"/>
       <c r="J57" s="12"/>
     </row>
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
@@ -1530,7 +1576,7 @@
       <c r="F58" s="20"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
+      <c r="I58" s="43"/>
       <c r="J58" s="12"/>
     </row>
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
@@ -1543,7 +1589,7 @@
       <c r="F59" s="20"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
+      <c r="I59" s="43"/>
       <c r="J59" s="12"/>
     </row>
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
@@ -1556,7 +1602,7 @@
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
+      <c r="I60" s="43"/>
       <c r="J60" s="12"/>
     </row>
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
@@ -1569,7 +1615,7 @@
       <c r="F61" s="20"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
+      <c r="I61" s="43"/>
       <c r="J61" s="12"/>
     </row>
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
@@ -1582,7 +1628,7 @@
       <c r="F62" s="20"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
+      <c r="I62" s="43"/>
       <c r="J62" s="12"/>
     </row>
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
@@ -1595,7 +1641,7 @@
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
+      <c r="I63" s="43"/>
       <c r="J63" s="12"/>
     </row>
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
@@ -1608,7 +1654,7 @@
       <c r="F64" s="20"/>
       <c r="G64" s="20"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
+      <c r="I64" s="43"/>
       <c r="J64" s="12"/>
     </row>
     <row r="65" spans="3:10" x14ac:dyDescent="0.25">
@@ -1621,7 +1667,7 @@
       <c r="F65" s="20"/>
       <c r="G65" s="20"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
+      <c r="I65" s="43"/>
       <c r="J65" s="12"/>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.25">
@@ -1634,7 +1680,7 @@
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
+      <c r="I66" s="43"/>
       <c r="J66" s="12"/>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.25">
@@ -1647,7 +1693,7 @@
       <c r="F67" s="20"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
+      <c r="I67" s="43"/>
       <c r="J67" s="12"/>
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.25">
@@ -1660,7 +1706,7 @@
       <c r="F68" s="20"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
+      <c r="I68" s="43"/>
       <c r="J68" s="12"/>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.25">
@@ -1673,7 +1719,7 @@
       <c r="F69" s="20"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
+      <c r="I69" s="43"/>
       <c r="J69" s="12"/>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.25">
@@ -1686,7 +1732,7 @@
       <c r="F70" s="20"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
+      <c r="I70" s="43"/>
       <c r="J70" s="12"/>
     </row>
     <row r="71" spans="3:10" x14ac:dyDescent="0.25">
@@ -1699,7 +1745,7 @@
       <c r="F71" s="20"/>
       <c r="G71" s="20"/>
       <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
+      <c r="I71" s="43"/>
       <c r="J71" s="12"/>
     </row>
     <row r="72" spans="3:10" x14ac:dyDescent="0.25">
@@ -1712,7 +1758,7 @@
       <c r="F72" s="20"/>
       <c r="G72" s="20"/>
       <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
+      <c r="I72" s="43"/>
       <c r="J72" s="12"/>
     </row>
     <row r="73" spans="3:10" x14ac:dyDescent="0.25">
@@ -1725,7 +1771,7 @@
       <c r="F73" s="20"/>
       <c r="G73" s="20"/>
       <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
+      <c r="I73" s="43"/>
       <c r="J73" s="12"/>
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.25">
@@ -1738,7 +1784,7 @@
       <c r="F74" s="20"/>
       <c r="G74" s="20"/>
       <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
+      <c r="I74" s="43"/>
       <c r="J74" s="12"/>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.25">
@@ -1751,7 +1797,7 @@
       <c r="F75" s="20"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
+      <c r="I75" s="43"/>
       <c r="J75" s="12"/>
     </row>
     <row r="76" spans="3:10" x14ac:dyDescent="0.25">
@@ -1764,7 +1810,7 @@
       <c r="F76" s="20"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
+      <c r="I76" s="43"/>
       <c r="J76" s="12"/>
     </row>
     <row r="77" spans="3:10" x14ac:dyDescent="0.25">
@@ -1777,7 +1823,7 @@
       <c r="F77" s="20"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
+      <c r="I77" s="43"/>
       <c r="J77" s="12"/>
     </row>
     <row r="78" spans="3:10" x14ac:dyDescent="0.25">
@@ -1790,7 +1836,7 @@
       <c r="F78" s="20"/>
       <c r="G78" s="20"/>
       <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
+      <c r="I78" s="43"/>
       <c r="J78" s="12"/>
     </row>
     <row r="79" spans="3:10" x14ac:dyDescent="0.25">
@@ -1803,7 +1849,7 @@
       <c r="F79" s="20"/>
       <c r="G79" s="20"/>
       <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
+      <c r="I79" s="43"/>
       <c r="J79" s="12"/>
     </row>
     <row r="80" spans="3:10" x14ac:dyDescent="0.25">
@@ -1816,7 +1862,7 @@
       <c r="F80" s="20"/>
       <c r="G80" s="20"/>
       <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
+      <c r="I80" s="43"/>
       <c r="J80" s="12"/>
     </row>
     <row r="81" spans="3:10" x14ac:dyDescent="0.25">
@@ -1829,7 +1875,7 @@
       <c r="F81" s="20"/>
       <c r="G81" s="20"/>
       <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
+      <c r="I81" s="43"/>
       <c r="J81" s="12"/>
     </row>
     <row r="82" spans="3:10" x14ac:dyDescent="0.25">
@@ -1842,7 +1888,7 @@
       <c r="F82" s="20"/>
       <c r="G82" s="20"/>
       <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
+      <c r="I82" s="43"/>
       <c r="J82" s="12"/>
     </row>
     <row r="83" spans="3:10" x14ac:dyDescent="0.25">
@@ -1855,7 +1901,7 @@
       <c r="F83" s="20"/>
       <c r="G83" s="20"/>
       <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="12"/>
     </row>
     <row r="84" spans="3:10" x14ac:dyDescent="0.25">
@@ -1868,7 +1914,7 @@
       <c r="F84" s="20"/>
       <c r="G84" s="20"/>
       <c r="H84" s="20"/>
-      <c r="I84" s="20"/>
+      <c r="I84" s="43"/>
       <c r="J84" s="12"/>
     </row>
     <row r="85" spans="3:10" x14ac:dyDescent="0.25">
@@ -1881,7 +1927,7 @@
       <c r="F85" s="20"/>
       <c r="G85" s="20"/>
       <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
+      <c r="I85" s="43"/>
       <c r="J85" s="12"/>
     </row>
     <row r="86" spans="3:10" x14ac:dyDescent="0.25">
@@ -1894,7 +1940,7 @@
       <c r="F86" s="20"/>
       <c r="G86" s="20"/>
       <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
+      <c r="I86" s="43"/>
       <c r="J86" s="12"/>
     </row>
     <row r="87" spans="3:10" x14ac:dyDescent="0.25">
@@ -1907,7 +1953,7 @@
       <c r="F87" s="20"/>
       <c r="G87" s="20"/>
       <c r="H87" s="20"/>
-      <c r="I87" s="20"/>
+      <c r="I87" s="43"/>
       <c r="J87" s="12"/>
     </row>
     <row r="88" spans="3:10" x14ac:dyDescent="0.25">
@@ -1920,7 +1966,7 @@
       <c r="F88" s="20"/>
       <c r="G88" s="20"/>
       <c r="H88" s="20"/>
-      <c r="I88" s="20"/>
+      <c r="I88" s="43"/>
       <c r="J88" s="12"/>
     </row>
     <row r="89" spans="3:10" x14ac:dyDescent="0.25">
@@ -1933,7 +1979,7 @@
       <c r="F89" s="20"/>
       <c r="G89" s="20"/>
       <c r="H89" s="20"/>
-      <c r="I89" s="20"/>
+      <c r="I89" s="43"/>
       <c r="J89" s="12"/>
     </row>
     <row r="90" spans="3:10" x14ac:dyDescent="0.25">
@@ -1946,7 +1992,7 @@
       <c r="F90" s="20"/>
       <c r="G90" s="20"/>
       <c r="H90" s="20"/>
-      <c r="I90" s="20"/>
+      <c r="I90" s="43"/>
       <c r="J90" s="12"/>
     </row>
     <row r="91" spans="3:10" x14ac:dyDescent="0.25">
@@ -1959,7 +2005,7 @@
       <c r="F91" s="20"/>
       <c r="G91" s="20"/>
       <c r="H91" s="20"/>
-      <c r="I91" s="20"/>
+      <c r="I91" s="43"/>
       <c r="J91" s="12"/>
     </row>
     <row r="92" spans="3:10" x14ac:dyDescent="0.25">
@@ -1972,7 +2018,7 @@
       <c r="F92" s="20"/>
       <c r="G92" s="20"/>
       <c r="H92" s="20"/>
-      <c r="I92" s="20"/>
+      <c r="I92" s="43"/>
       <c r="J92" s="12"/>
     </row>
     <row r="93" spans="3:10" x14ac:dyDescent="0.25">
@@ -1985,7 +2031,7 @@
       <c r="F93" s="20"/>
       <c r="G93" s="20"/>
       <c r="H93" s="20"/>
-      <c r="I93" s="20"/>
+      <c r="I93" s="43"/>
       <c r="J93" s="12"/>
     </row>
     <row r="94" spans="3:10" x14ac:dyDescent="0.25">
@@ -1998,7 +2044,7 @@
       <c r="F94" s="20"/>
       <c r="G94" s="20"/>
       <c r="H94" s="20"/>
-      <c r="I94" s="20"/>
+      <c r="I94" s="43"/>
       <c r="J94" s="12"/>
     </row>
     <row r="95" spans="3:10" x14ac:dyDescent="0.25">
@@ -2011,7 +2057,7 @@
       <c r="F95" s="20"/>
       <c r="G95" s="20"/>
       <c r="H95" s="20"/>
-      <c r="I95" s="20"/>
+      <c r="I95" s="43"/>
       <c r="J95" s="12"/>
     </row>
     <row r="96" spans="3:10" x14ac:dyDescent="0.25">
@@ -2024,7 +2070,7 @@
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
       <c r="H96" s="20"/>
-      <c r="I96" s="20"/>
+      <c r="I96" s="43"/>
       <c r="J96" s="12"/>
     </row>
     <row r="97" spans="3:10" x14ac:dyDescent="0.25">
@@ -2037,7 +2083,7 @@
       <c r="F97" s="20"/>
       <c r="G97" s="20"/>
       <c r="H97" s="20"/>
-      <c r="I97" s="20"/>
+      <c r="I97" s="43"/>
       <c r="J97" s="12"/>
     </row>
     <row r="98" spans="3:10" x14ac:dyDescent="0.25">
@@ -2050,7 +2096,7 @@
       <c r="F98" s="20"/>
       <c r="G98" s="20"/>
       <c r="H98" s="20"/>
-      <c r="I98" s="20"/>
+      <c r="I98" s="43"/>
       <c r="J98" s="12"/>
     </row>
     <row r="99" spans="3:10" x14ac:dyDescent="0.25">
@@ -2063,7 +2109,7 @@
       <c r="F99" s="20"/>
       <c r="G99" s="20"/>
       <c r="H99" s="20"/>
-      <c r="I99" s="20"/>
+      <c r="I99" s="43"/>
       <c r="J99" s="12"/>
     </row>
     <row r="100" spans="3:10" x14ac:dyDescent="0.25">
@@ -2076,7 +2122,7 @@
       <c r="F100" s="20"/>
       <c r="G100" s="20"/>
       <c r="H100" s="20"/>
-      <c r="I100" s="20"/>
+      <c r="I100" s="43"/>
       <c r="J100" s="12"/>
     </row>
     <row r="101" spans="3:10" x14ac:dyDescent="0.25">
@@ -2089,7 +2135,7 @@
       <c r="F101" s="20"/>
       <c r="G101" s="20"/>
       <c r="H101" s="20"/>
-      <c r="I101" s="20"/>
+      <c r="I101" s="43"/>
       <c r="J101" s="12"/>
     </row>
     <row r="102" spans="3:10" x14ac:dyDescent="0.25">
@@ -2102,7 +2148,7 @@
       <c r="F102" s="20"/>
       <c r="G102" s="20"/>
       <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
+      <c r="I102" s="43"/>
       <c r="J102" s="12"/>
     </row>
     <row r="103" spans="3:10" x14ac:dyDescent="0.25">
@@ -2115,7 +2161,7 @@
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
       <c r="H103" s="20"/>
-      <c r="I103" s="20"/>
+      <c r="I103" s="43"/>
       <c r="J103" s="12"/>
     </row>
     <row r="104" spans="3:10" x14ac:dyDescent="0.25">
@@ -2128,7 +2174,7 @@
       <c r="F104" s="20"/>
       <c r="G104" s="20"/>
       <c r="H104" s="20"/>
-      <c r="I104" s="20"/>
+      <c r="I104" s="43"/>
       <c r="J104" s="12"/>
     </row>
     <row r="105" spans="3:10" x14ac:dyDescent="0.25">
@@ -2141,7 +2187,7 @@
       <c r="F105" s="20"/>
       <c r="G105" s="20"/>
       <c r="H105" s="20"/>
-      <c r="I105" s="20"/>
+      <c r="I105" s="43"/>
       <c r="J105" s="12"/>
     </row>
     <row r="106" spans="3:10" x14ac:dyDescent="0.25">
@@ -2154,7 +2200,7 @@
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
       <c r="H106" s="20"/>
-      <c r="I106" s="20"/>
+      <c r="I106" s="43"/>
       <c r="J106" s="12"/>
     </row>
     <row r="107" spans="3:10" x14ac:dyDescent="0.25">
@@ -2167,7 +2213,7 @@
       <c r="F107" s="20"/>
       <c r="G107" s="20"/>
       <c r="H107" s="20"/>
-      <c r="I107" s="20"/>
+      <c r="I107" s="43"/>
       <c r="J107" s="12"/>
     </row>
     <row r="108" spans="3:10" x14ac:dyDescent="0.25">
@@ -2180,7 +2226,7 @@
       <c r="F108" s="20"/>
       <c r="G108" s="20"/>
       <c r="H108" s="20"/>
-      <c r="I108" s="20"/>
+      <c r="I108" s="43"/>
       <c r="J108" s="12"/>
     </row>
     <row r="109" spans="3:10" x14ac:dyDescent="0.25">
@@ -2193,7 +2239,7 @@
       <c r="F109" s="20"/>
       <c r="G109" s="20"/>
       <c r="H109" s="20"/>
-      <c r="I109" s="20"/>
+      <c r="I109" s="43"/>
       <c r="J109" s="12"/>
     </row>
     <row r="110" spans="3:10" x14ac:dyDescent="0.25">
@@ -2206,7 +2252,7 @@
       <c r="F110" s="20"/>
       <c r="G110" s="20"/>
       <c r="H110" s="20"/>
-      <c r="I110" s="20"/>
+      <c r="I110" s="43"/>
       <c r="J110" s="12"/>
     </row>
     <row r="111" spans="3:10" x14ac:dyDescent="0.25">
@@ -2219,7 +2265,7 @@
       <c r="F111" s="20"/>
       <c r="G111" s="20"/>
       <c r="H111" s="20"/>
-      <c r="I111" s="20"/>
+      <c r="I111" s="43"/>
       <c r="J111" s="12"/>
     </row>
     <row r="112" spans="3:10" x14ac:dyDescent="0.25">
@@ -2232,7 +2278,7 @@
       <c r="F112" s="20"/>
       <c r="G112" s="20"/>
       <c r="H112" s="20"/>
-      <c r="I112" s="20"/>
+      <c r="I112" s="43"/>
       <c r="J112" s="12"/>
     </row>
     <row r="113" spans="3:10" x14ac:dyDescent="0.25">
@@ -2245,7 +2291,7 @@
       <c r="F113" s="20"/>
       <c r="G113" s="20"/>
       <c r="H113" s="20"/>
-      <c r="I113" s="20"/>
+      <c r="I113" s="43"/>
       <c r="J113" s="12"/>
     </row>
     <row r="114" spans="3:10" x14ac:dyDescent="0.25">
@@ -2258,7 +2304,7 @@
       <c r="F114" s="20"/>
       <c r="G114" s="20"/>
       <c r="H114" s="20"/>
-      <c r="I114" s="20"/>
+      <c r="I114" s="43"/>
       <c r="J114" s="12"/>
     </row>
     <row r="115" spans="3:10" x14ac:dyDescent="0.25">
@@ -2271,7 +2317,7 @@
       <c r="F115" s="20"/>
       <c r="G115" s="20"/>
       <c r="H115" s="20"/>
-      <c r="I115" s="20"/>
+      <c r="I115" s="43"/>
       <c r="J115" s="12"/>
     </row>
     <row r="116" spans="3:10" x14ac:dyDescent="0.25">
@@ -2284,7 +2330,7 @@
       <c r="F116" s="20"/>
       <c r="G116" s="20"/>
       <c r="H116" s="20"/>
-      <c r="I116" s="20"/>
+      <c r="I116" s="43"/>
       <c r="J116" s="12"/>
     </row>
     <row r="117" spans="3:10" x14ac:dyDescent="0.25">
@@ -2297,7 +2343,7 @@
       <c r="F117" s="20"/>
       <c r="G117" s="20"/>
       <c r="H117" s="20"/>
-      <c r="I117" s="20"/>
+      <c r="I117" s="43"/>
       <c r="J117" s="12"/>
     </row>
     <row r="118" spans="3:10" x14ac:dyDescent="0.25">
@@ -2310,7 +2356,7 @@
       <c r="F118" s="20"/>
       <c r="G118" s="20"/>
       <c r="H118" s="20"/>
-      <c r="I118" s="20"/>
+      <c r="I118" s="43"/>
       <c r="J118" s="12"/>
     </row>
     <row r="119" spans="3:10" x14ac:dyDescent="0.25">
@@ -2323,7 +2369,7 @@
       <c r="F119" s="20"/>
       <c r="G119" s="20"/>
       <c r="H119" s="20"/>
-      <c r="I119" s="20"/>
+      <c r="I119" s="43"/>
       <c r="J119" s="12"/>
     </row>
     <row r="120" spans="3:10" x14ac:dyDescent="0.25">
@@ -2336,7 +2382,7 @@
       <c r="F120" s="20"/>
       <c r="G120" s="20"/>
       <c r="H120" s="20"/>
-      <c r="I120" s="20"/>
+      <c r="I120" s="43"/>
       <c r="J120" s="12"/>
     </row>
     <row r="121" spans="3:10" x14ac:dyDescent="0.25">
@@ -2349,7 +2395,7 @@
       <c r="F121" s="20"/>
       <c r="G121" s="20"/>
       <c r="H121" s="20"/>
-      <c r="I121" s="20"/>
+      <c r="I121" s="43"/>
       <c r="J121" s="12"/>
     </row>
     <row r="122" spans="3:10" x14ac:dyDescent="0.25">
@@ -2362,7 +2408,7 @@
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
       <c r="H122" s="20"/>
-      <c r="I122" s="20"/>
+      <c r="I122" s="43"/>
       <c r="J122" s="12"/>
     </row>
     <row r="123" spans="3:10" x14ac:dyDescent="0.25">
@@ -2375,7 +2421,7 @@
       <c r="F123" s="20"/>
       <c r="G123" s="20"/>
       <c r="H123" s="20"/>
-      <c r="I123" s="20"/>
+      <c r="I123" s="43"/>
       <c r="J123" s="12"/>
     </row>
     <row r="124" spans="3:10" x14ac:dyDescent="0.25">
@@ -2388,7 +2434,7 @@
       <c r="F124" s="20"/>
       <c r="G124" s="20"/>
       <c r="H124" s="20"/>
-      <c r="I124" s="20"/>
+      <c r="I124" s="43"/>
       <c r="J124" s="12"/>
     </row>
     <row r="125" spans="3:10" x14ac:dyDescent="0.25">
@@ -2398,15 +2444,16 @@
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="19"/>
+      <c r="I125" s="44"/>
       <c r="J125" s="15"/>
     </row>
     <row r="126" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D126" s="3"/>
+      <c r="I126" s="41"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
       <formula>"высокий"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2419,7 +2466,7 @@
   <dimension ref="B2:H1738"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23281,12 +23328,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
       <formula>"негатив"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Negative"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"значительна"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45109,15 +45159,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I1673">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"позитив"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"негатив"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1673">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"значительна"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/sample_file.xlsx
+++ b/sample_file.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DATA\processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE7141A1-944E-4144-82F1-CB58EF049EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36724639-7CF8-4A83-B966-C003611F79D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Сводка" sheetId="3" r:id="rId1"/>
     <sheet name="Значимые" sheetId="4" r:id="rId2"/>
     <sheet name="Публикации" sheetId="2" r:id="rId3"/>
     <sheet name="Анализ" sheetId="6" r:id="rId4"/>
+    <sheet name="Мониторинг" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Объект</t>
   </si>
@@ -420,7 +421,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -428,6 +429,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -458,46 +479,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -811,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L126"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -2453,7 +2434,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"высокий"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23328,15 +23309,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"Negative"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"негатив"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>"Negative"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"значительна"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -23348,7 +23329,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R1673"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -45159,15 +45140,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I1673">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"позитив"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"негатив"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J1673">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"значительна"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45183,7 +45164,7 @@
   <dimension ref="A1:L126"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -46834,4 +46815,1665 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4899F80-8623-485B-A107-618BF57071B2}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:L126"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2" style="2" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="32.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="81.42578125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="59.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="24.140625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="0" hidden="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="3"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="3:10" s="2" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="4"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" spans="3:10" s="2" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="8"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="12"/>
+    </row>
+    <row r="4" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="8"/>
+      <c r="D4" s="16">
+        <v>1</v>
+      </c>
+      <c r="E4" s="40"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="8"/>
+      <c r="D5" s="18">
+        <f t="shared" ref="D5:D68" si="0">D4+1</f>
+        <v>2</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C6" s="8"/>
+      <c r="D6" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E6" s="40"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="12"/>
+    </row>
+    <row r="7" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="12"/>
+    </row>
+    <row r="8" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="12"/>
+    </row>
+    <row r="9" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="18">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="E9" s="40"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="12"/>
+    </row>
+    <row r="10" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="12"/>
+    </row>
+    <row r="11" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="12"/>
+    </row>
+    <row r="12" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="18">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="12"/>
+    </row>
+    <row r="13" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="18">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="12"/>
+    </row>
+    <row r="14" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="18">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="12"/>
+    </row>
+    <row r="15" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="18">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="E15" s="40"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="12"/>
+    </row>
+    <row r="16" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="8"/>
+      <c r="D16" s="18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="12"/>
+    </row>
+    <row r="17" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="8"/>
+      <c r="D17" s="18">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="12"/>
+    </row>
+    <row r="18" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="8"/>
+      <c r="D18" s="18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="12"/>
+    </row>
+    <row r="19" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="8"/>
+      <c r="D19" s="18">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="E19" s="40"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="12"/>
+    </row>
+    <row r="20" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C20" s="8"/>
+      <c r="D20" s="18">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="12"/>
+    </row>
+    <row r="21" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C21" s="8"/>
+      <c r="D21" s="18">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="12"/>
+    </row>
+    <row r="22" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+      <c r="D22" s="18">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="E22" s="40"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="12"/>
+    </row>
+    <row r="23" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="8"/>
+      <c r="D23" s="18">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="E23" s="40"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="12"/>
+    </row>
+    <row r="24" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="8"/>
+      <c r="D24" s="18">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="E24" s="40"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="12"/>
+    </row>
+    <row r="25" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="8"/>
+      <c r="D25" s="18">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="E25" s="40"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C27" s="8"/>
+      <c r="D27" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="E27" s="40"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="12"/>
+    </row>
+    <row r="28" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C28" s="8"/>
+      <c r="D28" s="18">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="12"/>
+    </row>
+    <row r="29" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="18">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="E29" s="40"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="12"/>
+    </row>
+    <row r="30" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="18">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="E30" s="40"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="12"/>
+    </row>
+    <row r="31" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="18">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="E31" s="40"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="12"/>
+    </row>
+    <row r="32" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="8"/>
+      <c r="D32" s="18">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="E32" s="40"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="12"/>
+    </row>
+    <row r="33" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="E33" s="40"/>
+      <c r="F33" s="37"/>
+      <c r="G33" s="37"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="12"/>
+    </row>
+    <row r="34" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="8"/>
+      <c r="D34" s="18">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="E34" s="40"/>
+      <c r="F34" s="37"/>
+      <c r="G34" s="37"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="12"/>
+    </row>
+    <row r="35" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C35" s="8"/>
+      <c r="D35" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="E35" s="40"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="37"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="12"/>
+    </row>
+    <row r="36" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C36" s="8"/>
+      <c r="D36" s="18">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="E36" s="40"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="37"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="8"/>
+      <c r="D37" s="18">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="E37" s="40"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C38" s="8"/>
+      <c r="D38" s="18">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="E38" s="40"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C39" s="8"/>
+      <c r="D39" s="18">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="E39" s="40"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C40" s="8"/>
+      <c r="D40" s="18">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="E40" s="40"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C41" s="8"/>
+      <c r="D41" s="18">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="E41" s="40"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C42" s="8"/>
+      <c r="D42" s="18">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="E42" s="40"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C43" s="8"/>
+      <c r="D43" s="18">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="E43" s="40"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C44" s="8"/>
+      <c r="D44" s="18">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="E44" s="40"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C45" s="8"/>
+      <c r="D45" s="18">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="E45" s="40"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C46" s="8"/>
+      <c r="D46" s="18">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="E46" s="40"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="37"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C47" s="8"/>
+      <c r="D47" s="18">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="E47" s="40"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="37"/>
+      <c r="J47" s="12"/>
+    </row>
+    <row r="48" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="8"/>
+      <c r="D48" s="18">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="E48" s="40"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="12"/>
+    </row>
+    <row r="49" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C49" s="8"/>
+      <c r="D49" s="18">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="E49" s="40"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C50" s="8"/>
+      <c r="D50" s="18">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="E50" s="40"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C51" s="8"/>
+      <c r="D51" s="18">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="E51" s="40"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C52" s="8"/>
+      <c r="D52" s="18">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="E52" s="40"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C53" s="8"/>
+      <c r="D53" s="18">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="E53" s="40"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="37"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C54" s="8"/>
+      <c r="D54" s="18">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="E54" s="40"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="37"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C55" s="8"/>
+      <c r="D55" s="18">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="37"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C56" s="8"/>
+      <c r="D56" s="18">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="E56" s="40"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="37"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C57" s="8"/>
+      <c r="D57" s="18">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="E57" s="40"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="37"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="8"/>
+      <c r="D58" s="18">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="E58" s="40"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="8"/>
+      <c r="D59" s="18">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="E59" s="40"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="37"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="8"/>
+      <c r="D60" s="18">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="E60" s="40"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="37"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="8"/>
+      <c r="D61" s="18">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="E61" s="40"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="37"/>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="8"/>
+      <c r="D62" s="18">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="E62" s="40"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="37"/>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="8"/>
+      <c r="D63" s="18">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="E63" s="40"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="37"/>
+      <c r="J63" s="12"/>
+    </row>
+    <row r="64" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="8"/>
+      <c r="D64" s="18">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="E64" s="40"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="37"/>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="8"/>
+      <c r="D65" s="18">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="E65" s="40"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="37"/>
+      <c r="J65" s="12"/>
+    </row>
+    <row r="66" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="8"/>
+      <c r="D66" s="18">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="E66" s="40"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="37"/>
+      <c r="J66" s="12"/>
+    </row>
+    <row r="67" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C67" s="8"/>
+      <c r="D67" s="18">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="E67" s="40"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="37"/>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C68" s="8"/>
+      <c r="D68" s="18">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="E68" s="40"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="37"/>
+      <c r="J68" s="12"/>
+    </row>
+    <row r="69" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C69" s="8"/>
+      <c r="D69" s="18">
+        <f t="shared" ref="D69:D124" si="1">D68+1</f>
+        <v>66</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="37"/>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C70" s="8"/>
+      <c r="D70" s="18">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="E70" s="40"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="37"/>
+      <c r="J70" s="12"/>
+    </row>
+    <row r="71" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C71" s="8"/>
+      <c r="D71" s="18">
+        <f t="shared" si="1"/>
+        <v>68</v>
+      </c>
+      <c r="E71" s="40"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="37"/>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="8"/>
+      <c r="D72" s="18">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+      <c r="E72" s="40"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="37"/>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C73" s="8"/>
+      <c r="D73" s="18">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="E73" s="40"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C74" s="8"/>
+      <c r="D74" s="18">
+        <f t="shared" si="1"/>
+        <v>71</v>
+      </c>
+      <c r="E74" s="40"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="37"/>
+      <c r="J74" s="12"/>
+    </row>
+    <row r="75" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C75" s="8"/>
+      <c r="D75" s="18">
+        <f t="shared" si="1"/>
+        <v>72</v>
+      </c>
+      <c r="E75" s="40"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="37"/>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C76" s="8"/>
+      <c r="D76" s="18">
+        <f t="shared" si="1"/>
+        <v>73</v>
+      </c>
+      <c r="E76" s="40"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="37"/>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C77" s="8"/>
+      <c r="D77" s="18">
+        <f t="shared" si="1"/>
+        <v>74</v>
+      </c>
+      <c r="E77" s="40"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="37"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C78" s="8"/>
+      <c r="D78" s="18">
+        <f t="shared" si="1"/>
+        <v>75</v>
+      </c>
+      <c r="E78" s="40"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="37"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C79" s="8"/>
+      <c r="D79" s="18">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="E79" s="40"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
+      <c r="I79" s="37"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="8"/>
+      <c r="D80" s="18">
+        <f t="shared" si="1"/>
+        <v>77</v>
+      </c>
+      <c r="E80" s="40"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
+      <c r="I80" s="37"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="8"/>
+      <c r="D81" s="18">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+      <c r="E81" s="40"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
+      <c r="I81" s="37"/>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="8"/>
+      <c r="D82" s="18">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="E82" s="40"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
+      <c r="I82" s="37"/>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="8"/>
+      <c r="D83" s="18">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="E83" s="40"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="8"/>
+      <c r="D84" s="18">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="E84" s="40"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
+      <c r="I84" s="37"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="8"/>
+      <c r="D85" s="18">
+        <f t="shared" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="E85" s="40"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
+      <c r="I85" s="37"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="8"/>
+      <c r="D86" s="18">
+        <f t="shared" si="1"/>
+        <v>83</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
+      <c r="I86" s="37"/>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="8"/>
+      <c r="D87" s="18">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
+      <c r="I87" s="37"/>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="8"/>
+      <c r="D88" s="18">
+        <f t="shared" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="E88" s="40"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
+      <c r="I88" s="37"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="8"/>
+      <c r="D89" s="18">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="E89" s="40"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
+      <c r="I89" s="37"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="8"/>
+      <c r="D90" s="18">
+        <f t="shared" si="1"/>
+        <v>87</v>
+      </c>
+      <c r="E90" s="40"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
+      <c r="I90" s="37"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="8"/>
+      <c r="D91" s="18">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+      <c r="E91" s="40"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
+      <c r="I91" s="37"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="8"/>
+      <c r="D92" s="18">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+      <c r="E92" s="40"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
+      <c r="I92" s="37"/>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="8"/>
+      <c r="D93" s="18">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="37"/>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="8"/>
+      <c r="D94" s="18">
+        <f t="shared" si="1"/>
+        <v>91</v>
+      </c>
+      <c r="E94" s="40"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="37"/>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="8"/>
+      <c r="D95" s="18">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="E95" s="40"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="37"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="8"/>
+      <c r="D96" s="18">
+        <f t="shared" si="1"/>
+        <v>93</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="37"/>
+      <c r="J96" s="12"/>
+    </row>
+    <row r="97" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="8"/>
+      <c r="D97" s="18">
+        <f t="shared" si="1"/>
+        <v>94</v>
+      </c>
+      <c r="E97" s="40"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="37"/>
+      <c r="J97" s="12"/>
+    </row>
+    <row r="98" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="8"/>
+      <c r="D98" s="18">
+        <f t="shared" si="1"/>
+        <v>95</v>
+      </c>
+      <c r="E98" s="40"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
+      <c r="I98" s="37"/>
+      <c r="J98" s="12"/>
+    </row>
+    <row r="99" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="8"/>
+      <c r="D99" s="18">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="E99" s="40"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="37"/>
+      <c r="J99" s="12"/>
+    </row>
+    <row r="100" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="8"/>
+      <c r="D100" s="18">
+        <f t="shared" si="1"/>
+        <v>97</v>
+      </c>
+      <c r="E100" s="40"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="37"/>
+      <c r="J100" s="12"/>
+    </row>
+    <row r="101" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="8"/>
+      <c r="D101" s="18">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+      <c r="E101" s="40"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="37"/>
+      <c r="J101" s="12"/>
+    </row>
+    <row r="102" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="8"/>
+      <c r="D102" s="18">
+        <f t="shared" si="1"/>
+        <v>99</v>
+      </c>
+      <c r="E102" s="40"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="37"/>
+      <c r="J102" s="12"/>
+    </row>
+    <row r="103" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C103" s="8"/>
+      <c r="D103" s="18">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="E103" s="40"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="37"/>
+      <c r="J103" s="12"/>
+    </row>
+    <row r="104" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C104" s="8"/>
+      <c r="D104" s="18">
+        <f t="shared" si="1"/>
+        <v>101</v>
+      </c>
+      <c r="E104" s="40"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
+      <c r="I104" s="37"/>
+      <c r="J104" s="12"/>
+    </row>
+    <row r="105" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C105" s="8"/>
+      <c r="D105" s="18">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E105" s="40"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
+      <c r="I105" s="37"/>
+      <c r="J105" s="12"/>
+    </row>
+    <row r="106" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C106" s="8"/>
+      <c r="D106" s="18">
+        <f t="shared" si="1"/>
+        <v>103</v>
+      </c>
+      <c r="E106" s="40"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="12"/>
+    </row>
+    <row r="107" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C107" s="8"/>
+      <c r="D107" s="18">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+      <c r="E107" s="40"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
+      <c r="I107" s="37"/>
+      <c r="J107" s="12"/>
+    </row>
+    <row r="108" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C108" s="8"/>
+      <c r="D108" s="18">
+        <f t="shared" si="1"/>
+        <v>105</v>
+      </c>
+      <c r="E108" s="40"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
+      <c r="I108" s="37"/>
+      <c r="J108" s="12"/>
+    </row>
+    <row r="109" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C109" s="8"/>
+      <c r="D109" s="18">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="E109" s="40"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
+      <c r="I109" s="37"/>
+      <c r="J109" s="12"/>
+    </row>
+    <row r="110" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C110" s="8"/>
+      <c r="D110" s="18">
+        <f t="shared" si="1"/>
+        <v>107</v>
+      </c>
+      <c r="E110" s="40"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
+      <c r="I110" s="37"/>
+      <c r="J110" s="12"/>
+    </row>
+    <row r="111" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C111" s="8"/>
+      <c r="D111" s="18">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="E111" s="40"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
+      <c r="I111" s="37"/>
+      <c r="J111" s="12"/>
+    </row>
+    <row r="112" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C112" s="8"/>
+      <c r="D112" s="18">
+        <f t="shared" si="1"/>
+        <v>109</v>
+      </c>
+      <c r="E112" s="40"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
+      <c r="I112" s="37"/>
+      <c r="J112" s="12"/>
+    </row>
+    <row r="113" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C113" s="8"/>
+      <c r="D113" s="18">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="E113" s="40"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
+      <c r="I113" s="37"/>
+      <c r="J113" s="12"/>
+    </row>
+    <row r="114" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C114" s="8"/>
+      <c r="D114" s="18">
+        <f t="shared" si="1"/>
+        <v>111</v>
+      </c>
+      <c r="E114" s="40"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
+      <c r="I114" s="37"/>
+      <c r="J114" s="12"/>
+    </row>
+    <row r="115" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C115" s="8"/>
+      <c r="D115" s="18">
+        <f t="shared" si="1"/>
+        <v>112</v>
+      </c>
+      <c r="E115" s="40"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
+      <c r="I115" s="37"/>
+      <c r="J115" s="12"/>
+    </row>
+    <row r="116" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C116" s="8"/>
+      <c r="D116" s="18">
+        <f t="shared" si="1"/>
+        <v>113</v>
+      </c>
+      <c r="E116" s="40"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
+      <c r="I116" s="37"/>
+      <c r="J116" s="12"/>
+    </row>
+    <row r="117" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C117" s="8"/>
+      <c r="D117" s="18">
+        <f t="shared" si="1"/>
+        <v>114</v>
+      </c>
+      <c r="E117" s="40"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="12"/>
+    </row>
+    <row r="118" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C118" s="8"/>
+      <c r="D118" s="18">
+        <f t="shared" si="1"/>
+        <v>115</v>
+      </c>
+      <c r="E118" s="40"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
+      <c r="I118" s="37"/>
+      <c r="J118" s="12"/>
+    </row>
+    <row r="119" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C119" s="8"/>
+      <c r="D119" s="18">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="E119" s="40"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
+      <c r="I119" s="37"/>
+      <c r="J119" s="12"/>
+    </row>
+    <row r="120" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C120" s="8"/>
+      <c r="D120" s="18">
+        <f t="shared" si="1"/>
+        <v>117</v>
+      </c>
+      <c r="E120" s="40"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
+      <c r="I120" s="37"/>
+      <c r="J120" s="12"/>
+    </row>
+    <row r="121" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C121" s="8"/>
+      <c r="D121" s="18">
+        <f t="shared" si="1"/>
+        <v>118</v>
+      </c>
+      <c r="E121" s="40"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
+      <c r="I121" s="37"/>
+      <c r="J121" s="12"/>
+    </row>
+    <row r="122" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C122" s="8"/>
+      <c r="D122" s="18">
+        <f t="shared" si="1"/>
+        <v>119</v>
+      </c>
+      <c r="E122" s="40"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
+      <c r="I122" s="37"/>
+      <c r="J122" s="12"/>
+    </row>
+    <row r="123" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C123" s="8"/>
+      <c r="D123" s="18">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="E123" s="40"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
+      <c r="I123" s="37"/>
+      <c r="J123" s="12"/>
+    </row>
+    <row r="124" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C124" s="8"/>
+      <c r="D124" s="18">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="E124" s="40"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
+      <c r="I124" s="37"/>
+      <c r="J124" s="12"/>
+    </row>
+    <row r="125" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C125" s="13"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="38"/>
+      <c r="F125" s="38"/>
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="38"/>
+      <c r="J125" s="15"/>
+    </row>
+    <row r="126" spans="3:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D126" s="3"/>
+      <c r="E126" s="35"/>
+      <c r="F126" s="35"/>
+      <c r="G126" s="35"/>
+      <c r="H126" s="35"/>
+      <c r="I126" s="35"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>